--- a/Simulated/Activation/33MevTa/ETA/33MeVEtaFPs.xlsx
+++ b/Simulated/Activation/33MevTa/ETA/33MeVEtaFPs.xlsx
@@ -158,7 +158,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -177,6 +177,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -190,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -266,6 +272,23 @@
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -549,7 +572,7 @@
   <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1014,7 +1037,7 @@
         <v>11</v>
       </c>
       <c r="D8" s="25">
-        <v>531</v>
+        <v>91.105000000000004</v>
       </c>
       <c r="E8" s="29">
         <v>28.1</v>
@@ -1252,63 +1275,63 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A12" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="18" t="s">
+      <c r="A12" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="36">
         <v>724.2</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="36">
         <v>44.5</v>
       </c>
-      <c r="F12" s="15">
-        <v>0.01</v>
-      </c>
-      <c r="G12" s="15">
-        <v>1</v>
-      </c>
-      <c r="H12" s="16">
+      <c r="F12" s="37">
+        <v>0.01</v>
+      </c>
+      <c r="G12" s="37">
+        <v>1</v>
+      </c>
+      <c r="H12" s="38">
         <v>4970000000</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="38">
         <f t="shared" si="0"/>
         <v>5.3023799999999995E-8</v>
       </c>
-      <c r="J12" s="17">
-        <v>0.01</v>
-      </c>
-      <c r="K12" s="18">
-        <v>0.63500000000000001</v>
-      </c>
-      <c r="L12" s="19">
+      <c r="J12" s="39">
+        <v>0.01</v>
+      </c>
+      <c r="K12" s="36">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="L12" s="40">
         <f t="shared" si="1"/>
         <v>5.5934137857577115E-2</v>
       </c>
-      <c r="M12" s="20">
-        <v>18.7</v>
-      </c>
-      <c r="N12" s="19">
+      <c r="M12" s="41">
+        <v>18.7</v>
+      </c>
+      <c r="N12" s="40">
         <f t="shared" si="2"/>
         <v>235.24988927950002</v>
       </c>
-      <c r="O12" s="13">
+      <c r="O12" s="35">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="P12" s="19">
+      <c r="P12" s="40">
         <f t="shared" si="3"/>
         <v>7.0855614973262024E-2</v>
       </c>
-      <c r="Q12" s="21">
+      <c r="Q12" s="42">
         <f>4.44*3600</f>
         <v>15984.000000000002</v>
       </c>
-      <c r="R12" s="22">
+      <c r="R12" s="43">
         <f t="shared" si="4"/>
         <v>4.3365063848845423E-5</v>
       </c>
@@ -1613,7 +1636,7 @@
         <v>9950000000</v>
       </c>
       <c r="I2" s="28">
-        <f>$S$2*O2/100</f>
+        <f t="shared" ref="I2:I14" si="0">$S$2*O2/100</f>
         <v>2.1845805599999999E-9</v>
       </c>
       <c r="J2" s="28">
@@ -1678,7 +1701,7 @@
         <v>9950000000</v>
       </c>
       <c r="I3" s="28">
-        <f>$S$2*O3/100</f>
+        <f t="shared" si="0"/>
         <v>2.0325790000000001E-9</v>
       </c>
       <c r="J3" s="28">
@@ -1688,21 +1711,21 @@
         <v>0.63500000000000001</v>
       </c>
       <c r="L3" s="30">
-        <f t="shared" ref="L3:L14" si="0">0.265/18.7/K3^2/PI()*5</f>
+        <f t="shared" ref="L3:L14" si="1">0.265/18.7/K3^2/PI()*5</f>
         <v>5.5934137857577115E-2</v>
       </c>
       <c r="M3" s="31">
         <v>18.7</v>
       </c>
       <c r="N3" s="30">
-        <f t="shared" ref="N3:N14" si="1">0.9315*235.043923+0.0685*238.05073</f>
+        <f t="shared" ref="N3:N14" si="2">0.9315*235.043923+0.0685*238.05073</f>
         <v>235.24988927950002</v>
       </c>
       <c r="O3" s="24">
         <v>5.7500000000000002E-2</v>
       </c>
       <c r="P3" s="30">
-        <f t="shared" ref="P3:P14" si="2">K3^2*PI()*L3</f>
+        <f t="shared" ref="P3:P14" si="3">K3^2*PI()*L3</f>
         <v>7.0855614973262024E-2</v>
       </c>
       <c r="Q3" s="32">
@@ -1710,7 +1733,7 @@
         <v>60296.399999999994</v>
       </c>
       <c r="R3" s="33">
-        <f t="shared" ref="R3:R14" si="3">LN(2)/Q3</f>
+        <f t="shared" ref="R3:R14" si="4">LN(2)/Q3</f>
         <v>1.1495664427062732E-5</v>
       </c>
     </row>
@@ -1740,7 +1763,7 @@
         <v>9950000000</v>
       </c>
       <c r="I4" s="28">
-        <f>$S$2*O4/100</f>
+        <f t="shared" si="0"/>
         <v>8.8373000000000001E-11</v>
       </c>
       <c r="J4" s="28">
@@ -1750,21 +1773,21 @@
         <v>0.63500000000000001</v>
       </c>
       <c r="L4" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.5934137857577115E-2</v>
       </c>
       <c r="M4" s="31">
         <v>18.7</v>
       </c>
       <c r="N4" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>235.24988927950002</v>
       </c>
       <c r="O4" s="24">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="P4" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.0855614973262024E-2</v>
       </c>
       <c r="Q4" s="32">
@@ -1772,7 +1795,7 @@
         <v>643680</v>
       </c>
       <c r="R4" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0768505787968328E-6</v>
       </c>
     </row>
@@ -1802,7 +1825,7 @@
         <v>9950000000</v>
       </c>
       <c r="I5" s="17">
-        <f>$S$2*O5/100</f>
+        <f t="shared" si="0"/>
         <v>8.8373000000000001E-11</v>
       </c>
       <c r="J5" s="17">
@@ -1812,21 +1835,21 @@
         <v>0.63500000000000001</v>
       </c>
       <c r="L5" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.5934137857577115E-2</v>
       </c>
       <c r="M5" s="20">
         <v>18.7</v>
       </c>
       <c r="N5" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>235.24988927950002</v>
       </c>
       <c r="O5" s="13">
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="P5" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.0855614973262024E-2</v>
       </c>
       <c r="Q5" s="21">
@@ -1834,7 +1857,7 @@
         <v>192456</v>
       </c>
       <c r="R5" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3.6015877944046708E-6</v>
       </c>
     </row>
@@ -1864,7 +1887,7 @@
         <v>9950000000</v>
       </c>
       <c r="I6" s="28">
-        <f>$S$2*O6/100</f>
+        <f t="shared" si="0"/>
         <v>2.2658837200000001E-9</v>
       </c>
       <c r="J6" s="28">
@@ -1874,21 +1897,21 @@
         <v>0.63500000000000001</v>
       </c>
       <c r="L6" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.5934137857577115E-2</v>
       </c>
       <c r="M6" s="31">
         <v>18.7</v>
       </c>
       <c r="N6" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>235.24988927950002</v>
       </c>
       <c r="O6" s="24">
         <v>6.4100000000000004E-2</v>
       </c>
       <c r="P6" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.0855614973262024E-2</v>
       </c>
       <c r="Q6" s="32">
@@ -1896,7 +1919,7 @@
         <v>74988</v>
       </c>
       <c r="R6" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>9.2434413580832301E-6</v>
       </c>
     </row>
@@ -1926,7 +1949,7 @@
         <v>9950000000</v>
       </c>
       <c r="I7" s="28">
-        <f>$S$2*O7/100</f>
+        <f t="shared" si="0"/>
         <v>2.0184393199999998E-9</v>
       </c>
       <c r="J7" s="28">
@@ -1936,21 +1959,21 @@
         <v>0.63500000000000001</v>
       </c>
       <c r="L7" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.5934137857577115E-2</v>
       </c>
       <c r="M7" s="31">
         <v>18.7</v>
       </c>
       <c r="N7" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>235.24988927950002</v>
       </c>
       <c r="O7" s="24">
         <v>5.7099999999999998E-2</v>
       </c>
       <c r="P7" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.0855614973262024E-2</v>
       </c>
       <c r="Q7" s="32">
@@ -1958,7 +1981,7 @@
         <v>1101833.28</v>
       </c>
       <c r="R7" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.2908535541778636E-7</v>
       </c>
     </row>
@@ -1988,7 +2011,7 @@
         <v>9950000000</v>
       </c>
       <c r="I8" s="28">
-        <f>$S$2*O8/100</f>
+        <f t="shared" si="0"/>
         <v>7.4940304000000001E-10</v>
       </c>
       <c r="J8" s="28">
@@ -1998,21 +2021,21 @@
         <v>0.63500000000000001</v>
       </c>
       <c r="L8" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.5934137857577115E-2</v>
       </c>
       <c r="M8" s="31">
         <v>18.7</v>
       </c>
       <c r="N8" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>235.24988927950002</v>
       </c>
       <c r="O8" s="24">
         <v>2.12E-2</v>
       </c>
       <c r="P8" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.0855614973262024E-2</v>
       </c>
       <c r="Q8" s="32">
@@ -2020,7 +2043,7 @@
         <v>948671.99999999988</v>
       </c>
       <c r="R8" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.3064998288127551E-7</v>
       </c>
     </row>
@@ -2050,7 +2073,7 @@
         <v>9950000000</v>
       </c>
       <c r="I9" s="28">
-        <f>$S$2*O9/100</f>
+        <f t="shared" si="0"/>
         <v>1.6614124E-10</v>
       </c>
       <c r="J9" s="28">
@@ -2060,21 +2083,21 @@
         <v>0.63500000000000001</v>
       </c>
       <c r="L9" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.5934137857577115E-2</v>
       </c>
       <c r="M9" s="31">
         <v>18.7</v>
       </c>
       <c r="N9" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>235.24988927950002</v>
       </c>
       <c r="O9" s="24">
         <v>4.6999999999999993E-3</v>
       </c>
       <c r="P9" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.0855614973262024E-2</v>
       </c>
       <c r="Q9" s="32">
@@ -2082,7 +2105,7 @@
         <v>102240</v>
       </c>
       <c r="R9" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>6.7796085735518902E-6</v>
       </c>
     </row>
@@ -2112,7 +2135,7 @@
         <v>9950000000</v>
       </c>
       <c r="I10" s="28">
-        <f>$S$2*O10/100</f>
+        <f t="shared" si="0"/>
         <v>6.362856E-11</v>
       </c>
       <c r="J10" s="28">
@@ -2122,21 +2145,21 @@
         <v>0.63500000000000001</v>
       </c>
       <c r="L10" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.5934137857577115E-2</v>
       </c>
       <c r="M10" s="31">
         <v>18.7</v>
       </c>
       <c r="N10" s="30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>235.24988927950002</v>
       </c>
       <c r="O10" s="24">
         <v>1.8E-3</v>
       </c>
       <c r="P10" s="30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.0855614973262024E-2</v>
       </c>
       <c r="Q10" s="32">
@@ -2144,7 +2167,7 @@
         <v>166622.39999999999</v>
       </c>
       <c r="R10" s="33">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.1599879761661417E-6</v>
       </c>
     </row>
@@ -2174,7 +2197,7 @@
         <v>9950000000</v>
       </c>
       <c r="I11" s="16">
-        <f>$S$2*O11/100</f>
+        <f t="shared" si="0"/>
         <v>1.6790869999999999E-9</v>
       </c>
       <c r="J11" s="17">
@@ -2184,21 +2207,21 @@
         <v>0.63500000000000001</v>
       </c>
       <c r="L11" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.5934137857577115E-2</v>
       </c>
       <c r="M11" s="20">
         <v>18.7</v>
       </c>
       <c r="N11" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>235.24988927950002</v>
       </c>
       <c r="O11" s="13">
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="P11" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.0855614973262024E-2</v>
       </c>
       <c r="Q11" s="21">
@@ -2206,7 +2229,7 @@
         <v>9576</v>
       </c>
       <c r="R11" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>7.2383790785290861E-5</v>
       </c>
     </row>
@@ -2236,7 +2259,7 @@
         <v>9950000001</v>
       </c>
       <c r="I12" s="16">
-        <f>$S$2*O12/100</f>
+        <f t="shared" si="0"/>
         <v>5.302379999999999E-10</v>
       </c>
       <c r="J12" s="17">
@@ -2246,21 +2269,21 @@
         <v>0.63500000000000001</v>
       </c>
       <c r="L12" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.5934137857577115E-2</v>
       </c>
       <c r="M12" s="20">
         <v>18.7</v>
       </c>
       <c r="N12" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>235.24988927950002</v>
       </c>
       <c r="O12" s="13">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="P12" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.0855614973262024E-2</v>
       </c>
       <c r="Q12" s="21">
@@ -2268,7 +2291,7 @@
         <v>15984.000000000002</v>
       </c>
       <c r="R12" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4.3365063848845423E-5</v>
       </c>
     </row>
@@ -2298,7 +2321,7 @@
         <v>9950000002</v>
       </c>
       <c r="I13" s="16">
-        <f>$S$2*O13/100</f>
+        <f t="shared" si="0"/>
         <v>2.0325790000000001E-9</v>
       </c>
       <c r="J13" s="17">
@@ -2308,21 +2331,21 @@
         <v>0.63500000000000001</v>
       </c>
       <c r="L13" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.5934137857577115E-2</v>
       </c>
       <c r="M13" s="20">
         <v>18.7</v>
       </c>
       <c r="N13" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>235.24988927950002</v>
       </c>
       <c r="O13" s="13">
         <v>5.7500000000000002E-2</v>
       </c>
       <c r="P13" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.0855614973262024E-2</v>
       </c>
       <c r="Q13" s="21">
@@ -2330,7 +2353,7 @@
         <v>23688</v>
       </c>
       <c r="R13" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.9261532445117581E-5</v>
       </c>
     </row>
@@ -2360,7 +2383,7 @@
         <v>9950000003</v>
       </c>
       <c r="I14" s="16">
-        <f>$S$2*O14/100</f>
+        <f t="shared" si="0"/>
         <v>1.6790869999999999E-9</v>
       </c>
       <c r="J14" s="17">
@@ -2370,21 +2393,21 @@
         <v>0.63500000000000001</v>
       </c>
       <c r="L14" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.5934137857577115E-2</v>
       </c>
       <c r="M14" s="20">
         <v>18.7</v>
       </c>
       <c r="N14" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>235.24988927950002</v>
       </c>
       <c r="O14" s="13">
         <v>4.7500000000000001E-2</v>
       </c>
       <c r="P14" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.0855614973262024E-2</v>
       </c>
       <c r="Q14" s="21">
@@ -2392,7 +2415,7 @@
         <v>118940.40000000001</v>
       </c>
       <c r="R14" s="22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.827684962888516E-6</v>
       </c>
     </row>
